--- a/SimpleSearchPesymistic/resultSimpleSearchPesymistic.xlsx
+++ b/SimpleSearchPesymistic/resultSimpleSearchPesymistic.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8504A77F-D2D5-4DE7-96A0-E0CBADD90D7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2175C-C991-4F2A-9E24-2D0F2464E418}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rozmiar do czasu" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2670,7 +2670,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Denis Grabiszewski" refreshedDate="43563.929067824072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis Grabiszewski" refreshedDate="43563.929067824072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E11" sheet="resultSimpleSearchPesymistic"/>
   </cacheSource>
@@ -2797,7 +2797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -2888,7 +2888,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -3274,123 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>26843545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>53687090</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>80530635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>107374180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>134217725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>161061270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>187904815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>214748360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>241591905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>268435450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1476394975</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3412,6 +3296,122 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26843545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>53687090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80530635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>107374180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>134217725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>161061270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>187904815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>214748360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>241591905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>268435450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1476394975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>26843545</v>
       </c>
@@ -3506,7 +3506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
